--- a/Spreadsheets/rush_standard_format.xlsx
+++ b/Spreadsheets/rush_standard_format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>cost</t>
   </si>
@@ -76,42 +76,42 @@
     <t>Ratcatcher</t>
   </si>
   <si>
+    <t>Steel Rager</t>
+  </si>
+  <si>
+    <t>Swift Messenger</t>
+  </si>
+  <si>
     <t>Militia Commander</t>
   </si>
   <si>
-    <t>Swift Messenger</t>
-  </si>
-  <si>
-    <t>Steel Rager</t>
-  </si>
-  <si>
     <t>Crystal Stag</t>
   </si>
   <si>
     <t>Sightless Ranger</t>
   </si>
   <si>
+    <t>Muck Hunter</t>
+  </si>
+  <si>
+    <t>Darius Crowley</t>
+  </si>
+  <si>
+    <t>Vilebrood Skitterer</t>
+  </si>
+  <si>
     <t>Zilliax</t>
   </si>
   <si>
-    <t>Vilebrood Skitterer</t>
-  </si>
-  <si>
-    <t>Muck Hunter</t>
-  </si>
-  <si>
     <t>Ghostly Charger</t>
   </si>
   <si>
-    <t>Darius Crowley</t>
+    <t>Cursed Castaway</t>
   </si>
   <si>
     <t>Spark Drill</t>
   </si>
   <si>
-    <t>Cursed Castaway</t>
-  </si>
-  <si>
     <t>Amani War Bear</t>
   </si>
   <si>
@@ -121,15 +121,12 @@
     <t>Akali, the Rhino</t>
   </si>
   <si>
-    <t>Captain Hooktusk</t>
+    <t>Gilnean Royal Guard</t>
   </si>
   <si>
     <t>Batterhead</t>
   </si>
   <si>
-    <t>Gilnean Royal Guard</t>
-  </si>
-  <si>
     <t>Oondasta</t>
   </si>
   <si>
@@ -232,39 +229,39 @@
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Battlecry:&lt;/b&gt; Destroy a friendly minion and gain its Attack and Health.</t>
   </si>
   <si>
+    <t>[x]&lt;b&gt;Rush&lt;/b&gt;\nEach turn this is in your hand,\nswap its Attack and Health.</t>
+  </si>
+  <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Battlecry:&lt;/b&gt; Gain +3_Attack this turn.</t>
   </si>
   <si>
-    <t>[x]&lt;b&gt;Rush&lt;/b&gt;\nEach turn this is in your hand,\nswap its Attack and Health.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;. &lt;b&gt;Battlecry:&lt;/b&gt; If you've restored 5 Health this game, summon a copy of this.@ &lt;i&gt;({0} left!)&lt;/i&gt;@ &lt;i&gt;(Ready!)&lt;/i&gt;</t>
   </si>
   <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Overkill&lt;/b&gt;: Summon two 1/1_Bats.</t>
   </si>
   <si>
+    <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Battlecry:&lt;/b&gt; Summon two 2/1_Mucklings for your opponent.</t>
+  </si>
+  <si>
+    <t>[x]&lt;b&gt;Rush&lt;/b&gt;\nAfter this attacks and kills\na minion, gain +2/+2.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Poisonous&lt;/b&gt;\n&lt;b&gt;Rush&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>&lt;b&gt;Magnetic&lt;/b&gt;\n&lt;b&gt;&lt;b&gt;Divine Shield&lt;/b&gt;, &lt;b&gt;Taunt&lt;/b&gt;, Lifesteal, Rush&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;Poisonous&lt;/b&gt;\n&lt;b&gt;Rush&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Battlecry:&lt;/b&gt; Summon two 2/1_Mucklings for your opponent.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Divine Shield&lt;/b&gt;\n&lt;b&gt;Rush&lt;/b&gt;</t>
   </si>
   <si>
-    <t>[x]&lt;b&gt;Rush&lt;/b&gt;\nAfter this attacks and kills\na minion, gain +2/+2.</t>
+    <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Draw a &lt;b&gt;Combo&lt;/b&gt; card from your deck.</t>
   </si>
   <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Add two\n1/1 Sparks with &lt;b&gt;Rush&lt;/b&gt; to your hand.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Draw a &lt;b&gt;Combo&lt;/b&gt; card from your deck.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Taunt&lt;/b&gt;</t>
   </si>
   <si>
@@ -274,15 +271,12 @@
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Overkill:&lt;/b&gt; Draw a &lt;b&gt;Rush&lt;/b&gt; minion from your deck. Give it +5/+5.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Battlecry:&lt;/b&gt; Summon 3 Pirates from your deck. Give them &lt;b&gt;Rush&lt;/b&gt;.</t>
+    <t>[x]&lt;b&gt;Divine Shield&lt;/b&gt;, &lt;b&gt;Rush&lt;/b&gt;\nEach turn this is in your hand,\nswap its Attack and Health.</t>
   </si>
   <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;. After this attacks and kills a minion, it may_attack again.</t>
   </si>
   <si>
-    <t>[x]&lt;b&gt;Divine Shield&lt;/b&gt;, &lt;b&gt;Rush&lt;/b&gt;\nEach turn this is in your hand,\nswap its Attack and Health.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Rush&lt;/b&gt;\n&lt;b&gt;Overkill:&lt;/b&gt; Summon a Beast from your hand.</t>
   </si>
   <si>
@@ -319,42 +313,42 @@
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_515.png</t>
   </si>
   <si>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/BOT_603.png</t>
+  </si>
+  <si>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_528.png</t>
+  </si>
+  <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_803.png</t>
   </si>
   <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_528.png</t>
-  </si>
-  <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/BOT_603.png</t>
-  </si>
-  <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/DAL_799.png</t>
   </si>
   <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/TRL_020.png</t>
   </si>
   <si>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_682.png</t>
+  </si>
+  <si>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_547.png</t>
+  </si>
+  <si>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_562.png</t>
+  </si>
+  <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/BOT_548.png</t>
   </si>
   <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_562.png</t>
-  </si>
-  <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_682.png</t>
-  </si>
-  <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_545.png</t>
   </si>
   <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_547.png</t>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_557.png</t>
   </si>
   <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/BOT_102.png</t>
   </si>
   <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_557.png</t>
-  </si>
-  <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/TRL_550.png</t>
   </si>
   <si>
@@ -364,13 +358,10 @@
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/TRL_329.png</t>
   </si>
   <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/TRL_126.png</t>
+    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_202.png</t>
   </si>
   <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/DAL_592.png</t>
-  </si>
-  <si>
-    <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/GIL_202.png</t>
   </si>
   <si>
     <t>http://media.services.zam.com/v1/media/byName/hs/cards/enus/TRL_542.png</t>
@@ -753,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,19 +793,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -823,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -837,19 +828,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -858,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -872,19 +863,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -893,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -907,19 +898,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -928,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -942,19 +933,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -963,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -977,19 +968,19 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -998,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1012,19 +1003,19 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1033,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1047,16 +1038,16 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1065,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1079,16 +1070,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1097,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1111,28 +1102,31 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1143,16 +1137,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1161,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1184,22 +1178,19 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1210,19 +1201,19 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1231,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1245,16 +1236,16 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1263,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1280,28 +1271,25 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1312,31 +1300,28 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1347,28 +1332,31 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1379,28 +1367,31 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1411,28 +1402,28 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1446,13 +1437,13 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
         <v>60</v>
@@ -1461,13 +1452,13 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1478,31 +1469,31 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1513,19 +1504,19 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
         <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>59</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1534,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1548,19 +1539,19 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1569,10 +1560,10 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1583,19 +1574,19 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1604,10 +1595,10 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1618,31 +1609,28 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1653,16 +1641,16 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -1671,42 +1659,45 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
         <v>58</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1717,133 +1708,98 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
       <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
       <c r="H31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1834,6 @@
     <hyperlink ref="K29" r:id="rId28"/>
     <hyperlink ref="K30" r:id="rId29"/>
     <hyperlink ref="K31" r:id="rId30"/>
-    <hyperlink ref="K32" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
